--- a/TestUnitaires.xlsx
+++ b/TestUnitaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\PCArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5CF10-2D97-4A31-9E87-7A07969AA860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABBA6A-E9F4-4409-A318-92542FCE0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2066EFEB-9789-482C-AA6E-A8247BD797D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>TEST UNITAIRE</t>
   </si>
@@ -81,7 +81,57 @@
     <t>0x2 dans ,les 4 registres</t>
   </si>
   <si>
-    <t>a</t>
+    <t xml:space="preserve">X"20100024", X"3c011001", X"C0280000", X"2002000a", X"0000000c", </t>
+  </si>
+  <si>
+    <t>Load  vectorielle a 0x10010000</t>
+  </si>
+  <si>
+    <t>Load de 0x1001000 jusqua 0x1001000c dans $t0 jusqua $t3 (reg 8 a 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequence de donne utiliser pour les tests </t>
+  </si>
+  <si>
+    <t>X"12345678",
+X"87654321",
+X"bad0face",
+X"00000001",
+X"00000002",
+X"00000003",
+X"00000004",
+X"00000005",
+X"00000006",
+X"5555cccc",</t>
+  </si>
+  <si>
+    <t>12345678 dans $t0,  87654321 dans  $t1,  bad0face dans $t2, 1 dans $t3</t>
+  </si>
+  <si>
+    <t>12345678 dans $t0, 87654321 dans $t1, bad0face dans $t2, 1 dans $t3</t>
+  </si>
+  <si>
+    <t>X"20100024",
+X"3c011001",
+X"20080001",
+X"20090002",
+X"200a0003",
+X"200b0004",
+X"C4280000",
+X"2002000a",
+X"0000000c",</t>
+  </si>
+  <si>
+    <t>intialise 1,2,3,4 dans $t0 a $t3, ensuite save $t0 -$t3 dans la memoire (a partir de 0x10010000 qui est le debut des donnees)</t>
+  </si>
+  <si>
+    <t>retrouver 1,2,3,4 dans 0x10010000, 0x10010004 , 0x10010008, 0x1001000c resespectivement</t>
+  </si>
+  <si>
+    <t>on voit bien lupdate des valeurs dans la mémoire</t>
+  </si>
+  <si>
+    <t>save de 4 registres intialisés avec des valeurs aléatoire</t>
   </si>
 </sst>
 </file>
@@ -525,17 +575,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45E1DBD-2F4E-4269-8CAD-137E567F286D}">
-  <dimension ref="A3:T32"/>
+  <dimension ref="A3:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -543,11 +604,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>1</v>
@@ -598,7 +654,7 @@
       </c>
       <c r="T9" s="5"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -620,14 +676,24 @@
       <c r="I10" s="8"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="2"/>
+      <c r="L10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="R10" s="7"/>
-      <c r="S10" s="8"/>
+      <c r="S10" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -918,15 +984,25 @@
       </c>
       <c r="T22" s="5"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2"/>
+    <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1137,6 +1213,16 @@
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="176">

--- a/TestUnitaires.xlsx
+++ b/TestUnitaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\PCArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABBA6A-E9F4-4409-A318-92542FCE0D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381D5200-98D4-4F0A-91CA-B2B7966066F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2066EFEB-9789-482C-AA6E-A8247BD797D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>TEST UNITAIRE</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Load de 0x1001000 jusqua 0x1001000c dans $t0 jusqua $t3 (reg 8 a 11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sequence de donne utiliser pour les tests </t>
   </si>
   <si>
     <t>X"12345678",
@@ -132,6 +129,26 @@
   </si>
   <si>
     <t>save de 4 registres intialisés avec des valeurs aléatoire</t>
+  </si>
+  <si>
+    <t>Sequence de donne utiliser pour les tests  ( a mettre dans Memdonnées)</t>
+  </si>
+  <si>
+    <t>ajout de 16 dans 4 vecteur</t>
+  </si>
+  <si>
+    <t>X"D1080010",
+X"2002000a",
+X"0000000c",</t>
+  </si>
+  <si>
+    <t>addvs $t0 ,$t0,16</t>
+  </si>
+  <si>
+    <t>avoir 0x10 dans $t0 a $t3 (reg 8 a 11 )</t>
+  </si>
+  <si>
+    <t>0x10 dans $t0 a $t3 (reg 8 a 11 ) au clk suivant</t>
   </si>
 </sst>
 </file>
@@ -688,11 +705,11 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R10" s="7"/>
       <c r="S10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T10" s="8"/>
     </row>
@@ -986,34 +1003,44 @@
     </row>
     <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="2"/>
+      <c r="L23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="Q23" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="R23" s="7"/>
-      <c r="S23" s="8"/>
+      <c r="S23" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="T23" s="8"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1216,12 +1243,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TestUnitaires.xlsx
+++ b/TestUnitaires.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\PCArchitecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldu\Documents\S4\APP4\Problématique\PCArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652C9016-ED96-4314-A71A-D1D1F3CC3918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB8E26-2CB7-4AB9-9121-3AD04238FCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2066EFEB-9789-482C-AA6E-A8247BD797D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>TEST UNITAIRE</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t xml:space="preserve">immediate </t>
-  </si>
-  <si>
-    <t>MOVV</t>
-  </si>
-  <si>
-    <t>MOVZ</t>
   </si>
   <si>
     <t>adresse in mem</t>
@@ -374,6 +368,30 @@
   </si>
   <si>
     <t>SLTV sur des registres consecutif</t>
+  </si>
+  <si>
+    <t>registre operande binaire</t>
+  </si>
+  <si>
+    <t>registre operande</t>
+  </si>
+  <si>
+    <t>MOVNV  $s0, $t0, $t4</t>
+  </si>
+  <si>
+    <t>CD0C8000 - 110011 01000 01100 10000 00000 000000</t>
+  </si>
+  <si>
+    <t>CD0C8000 - 110110 01000 01100 10000 00000 000000</t>
+  </si>
+  <si>
+    <t>MOVNV  $s0, $t0, $s4</t>
+  </si>
+  <si>
+    <t>si $t0 - $t3 != 0, $s4-$s7 =  $s0-$s3</t>
+  </si>
+  <si>
+    <t>si $t0 - $t3 = 0, $t4-$t7 =  $s0-$s3</t>
   </si>
 </sst>
 </file>
@@ -527,10 +545,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -539,13 +564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -862,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45E1DBD-2F4E-4269-8CAD-137E567F286D}">
   <dimension ref="A2:AG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,23 +925,23 @@
     </row>
     <row r="4" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="W4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA5" s="18" t="s">
+      <c r="AA5" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
       <c r="AD5" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -963,24 +981,24 @@
         <v>110000</v>
       </c>
       <c r="Y7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
       <c r="AD7" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -991,67 +1009,67 @@
         <v>110001</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
+        <v>49</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
       <c r="AD8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF8" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="20"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21" t="s">
+      <c r="N9" s="20"/>
+      <c r="O9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21" t="s">
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21" t="s">
+      <c r="R9" s="20"/>
+      <c r="S9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="21"/>
+      <c r="T9" s="20"/>
       <c r="W9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1059,13 +1077,13 @@
         <v>110010</v>
       </c>
       <c r="Y9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="AB9" s="4">
         <v>0</v>
@@ -1074,16 +1092,16 @@
         <v>100</v>
       </c>
       <c r="AD9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="AE9" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="AF9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -1091,9 +1109,9 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="C10" s="19"/>
       <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1102,19 +1120,19 @@
         <v>12</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="16"/>
+      <c r="N10" s="19"/>
       <c r="O10" s="17" t="s">
         <v>16</v>
       </c>
@@ -1123,10 +1141,10 @@
         <v>18</v>
       </c>
       <c r="R10" s="17"/>
-      <c r="S10" s="20" t="s">
+      <c r="S10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="20"/>
+      <c r="T10" s="18"/>
       <c r="W10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1134,30 +1152,30 @@
         <v>110100</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA10" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
       <c r="AD10" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF10" s="14" t="s">
         <v>59</v>
-      </c>
-      <c r="AF10" s="14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1167,8 +1185,8 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -1182,13 +1200,13 @@
         <v>110101</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB11" s="4">
         <v>0</v>
@@ -1197,19 +1215,19 @@
         <v>111</v>
       </c>
       <c r="AD11" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AE11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AF11" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1219,8 +1237,8 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -1228,27 +1246,43 @@
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="V12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="X12" s="4">
         <v>110011</v>
       </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1258,8 +1292,8 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
@@ -1267,27 +1301,43 @@
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="V13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="X13" s="4">
         <v>110110</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
+      <c r="Y13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1297,8 +1347,8 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -1318,8 +1368,8 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1329,8 +1379,8 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -1340,8 +1390,8 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1351,8 +1401,8 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -1362,8 +1412,8 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -1373,8 +1423,8 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -1384,8 +1434,8 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -1395,8 +1445,8 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -1406,8 +1456,8 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1417,8 +1467,8 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -1426,7 +1476,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
@@ -1451,8 +1501,8 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="W20" s="22" t="s">
-        <v>84</v>
+      <c r="W20" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -1477,52 +1527,52 @@
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="W21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21" t="s">
+      <c r="N22" s="20"/>
+      <c r="O22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21" t="s">
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21" t="s">
+      <c r="R22" s="20"/>
+      <c r="S22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="T22" s="21"/>
+      <c r="T22" s="20"/>
       <c r="W22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
@@ -1532,7 +1582,7 @@
       <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
@@ -1541,10 +1591,10 @@
         <v>22</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5" t="s">
@@ -1553,7 +1603,7 @@
       <c r="M23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="16"/>
+      <c r="N23" s="19"/>
       <c r="O23" s="17" t="s">
         <v>27</v>
       </c>
@@ -1562,18 +1612,18 @@
         <v>28</v>
       </c>
       <c r="R23" s="17"/>
-      <c r="S23" s="20" t="s">
+      <c r="S23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="20"/>
+      <c r="T23" s="18"/>
       <c r="W23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -1583,8 +1633,8 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -1594,8 +1644,8 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -1605,8 +1655,8 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
@@ -1616,8 +1666,8 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -1627,8 +1677,8 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
@@ -1638,8 +1688,8 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1649,8 +1699,8 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
@@ -1660,8 +1710,8 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -1671,8 +1721,8 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
@@ -1682,8 +1732,8 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -1693,8 +1743,8 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
@@ -1704,8 +1754,8 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -1715,8 +1765,8 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -1726,8 +1776,8 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1737,8 +1787,8 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -1748,8 +1798,8 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -1759,8 +1809,8 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -1816,84 +1866,84 @@
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21" t="s">
+      <c r="G36" s="20"/>
+      <c r="H36" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="I36" s="20"/>
       <c r="L36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="21" t="s">
+      <c r="M36" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21" t="s">
+      <c r="N36" s="20"/>
+      <c r="O36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21" t="s">
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21" t="s">
+      <c r="R36" s="20"/>
+      <c r="S36" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="T36" s="21"/>
+      <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="20"/>
+      <c r="H37" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" s="18"/>
       <c r="L37" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M37" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="N37" s="19"/>
+      <c r="O37" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R37" s="17"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -1901,8 +1951,8 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
@@ -1912,8 +1962,8 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1921,8 +1971,8 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -1932,8 +1982,8 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -1941,8 +1991,8 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
@@ -1952,8 +2002,8 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -1961,8 +2011,8 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -1972,8 +2022,8 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -1981,8 +2031,8 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
@@ -1992,8 +2042,8 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -2001,8 +2051,8 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
@@ -2012,8 +2062,8 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -2021,8 +2071,8 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
@@ -2032,8 +2082,8 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -2041,8 +2091,8 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
@@ -2052,8 +2102,8 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -2061,8 +2111,8 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
@@ -2098,31 +2148,31 @@
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21" t="s">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21" t="s">
+      <c r="E51" s="20"/>
+      <c r="F51" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21" t="s">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="21"/>
+      <c r="I51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="16"/>
+      <c r="C52" s="19"/>
       <c r="D52" s="17" t="s">
         <v>34</v>
       </c>
@@ -2131,15 +2181,15 @@
         <v>35</v>
       </c>
       <c r="G52" s="17"/>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="20"/>
+      <c r="I52" s="18"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -2149,8 +2199,8 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -2160,8 +2210,8 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -2171,8 +2221,8 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -2182,8 +2232,8 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -2193,8 +2243,8 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -2204,8 +2254,8 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -2215,8 +2265,8 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -2226,8 +2276,8 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -2237,41 +2287,259 @@
     </row>
   </sheetData>
   <mergeCells count="312">
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S29:T29"/>
     <mergeCell ref="S30:T30"/>
@@ -2296,259 +2564,41 @@
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O30:P30"/>
     <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestUnitaires.xlsx
+++ b/TestUnitaires.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldu\Documents\S4\APP4\Problématique\PCArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB8E26-2CB7-4AB9-9121-3AD04238FCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827B8553-795C-49B9-AE88-5507B7DD8BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2066EFEB-9789-482C-AA6E-A8247BD797D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>TEST UNITAIRE</t>
   </si>
@@ -376,22 +376,19 @@
     <t>registre operande</t>
   </si>
   <si>
-    <t>MOVNV  $s0, $t0, $t4</t>
-  </si>
-  <si>
     <t>CD0C8000 - 110011 01000 01100 10000 00000 000000</t>
   </si>
   <si>
     <t>CD0C8000 - 110110 01000 01100 10000 00000 000000</t>
   </si>
   <si>
-    <t>MOVNV  $s0, $t0, $s4</t>
-  </si>
-  <si>
-    <t>si $t0 - $t3 != 0, $s4-$s7 =  $s0-$s3</t>
-  </si>
-  <si>
-    <t>si $t0 - $t3 = 0, $t4-$t7 =  $s0-$s3</t>
+    <t>MOVNV  $t0, $t4, $s0</t>
+  </si>
+  <si>
+    <t>si $t4 - $t7 != 0, $s0 - $s3 =  $t0 - $t3</t>
+  </si>
+  <si>
+    <t>si $t4 - $t7 = 0, $s0 - $s3 =  $t0 - $t4</t>
   </si>
 </sst>
 </file>
@@ -547,21 +544,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -881,7 +878,7 @@
   <dimension ref="A2:AG61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,11 +926,11 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
       <c r="AD5" s="11" t="s">
         <v>66</v>
       </c>
@@ -986,11 +983,11 @@
       <c r="Z7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AA7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
       <c r="AD7" s="13" t="s">
         <v>68</v>
       </c>
@@ -1014,11 +1011,11 @@
       <c r="Z8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="22" t="s">
+      <c r="AA8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
       <c r="AD8" s="13" t="s">
         <v>70</v>
       </c>
@@ -1033,43 +1030,43 @@
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="22"/>
+      <c r="S9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="20"/>
+      <c r="T9" s="22"/>
       <c r="W9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1108,43 +1105,43 @@
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="17" t="s">
+      <c r="N10" s="17"/>
+      <c r="O10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17" t="s">
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18" t="s">
+      <c r="R10" s="18"/>
+      <c r="S10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="18"/>
+      <c r="T10" s="21"/>
       <c r="W10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1157,11 +1154,11 @@
       <c r="Z10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA10" s="22" t="s">
+      <c r="AA10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
       <c r="AD10" s="13" t="s">
         <v>58</v>
       </c>
@@ -1174,25 +1171,25 @@
     </row>
     <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
       <c r="W11" s="4" t="s">
         <v>33</v>
       </c>
@@ -1226,25 +1223,25 @@
     </row>
     <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
       <c r="V12" t="s">
         <v>67</v>
       </c>
@@ -1270,36 +1267,36 @@
         <v>0</v>
       </c>
       <c r="AD12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF12" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
       <c r="V13" t="s">
         <v>67</v>
       </c>
@@ -1325,36 +1322,36 @@
         <v>0</v>
       </c>
       <c r="AD13" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
@@ -1368,113 +1365,113 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
@@ -1534,43 +1531,43 @@
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20" t="s">
+      <c r="N22" s="22"/>
+      <c r="O22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20" t="s">
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20" t="s">
+      <c r="R22" s="22"/>
+      <c r="S22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T22" s="20"/>
+      <c r="T22" s="22"/>
       <c r="W22" t="s">
         <v>84</v>
       </c>
@@ -1579,244 +1576,244 @@
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="17" t="s">
+      <c r="N23" s="17"/>
+      <c r="O23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17" t="s">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="S23" s="18" t="s">
+      <c r="R23" s="18"/>
+      <c r="S23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="18"/>
+      <c r="T23" s="21"/>
       <c r="W23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
     </row>
     <row r="34" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
@@ -1866,259 +1863,259 @@
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="22"/>
+      <c r="D36" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
+      <c r="G36" s="22"/>
+      <c r="H36" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="22"/>
       <c r="L36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20" t="s">
+      <c r="N36" s="22"/>
+      <c r="O36" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20" t="s">
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20" t="s">
+      <c r="R36" s="22"/>
+      <c r="S36" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="T36" s="20"/>
+      <c r="T36" s="22"/>
     </row>
     <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="21"/>
       <c r="L37" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M37" s="17" t="s">
+      <c r="M37" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="17" t="s">
+      <c r="N37" s="17"/>
+      <c r="O37" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17" t="s">
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
     </row>
     <row r="49" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A49" s="7" t="s">
@@ -2148,145 +2145,433 @@
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
+      <c r="C51" s="22"/>
+      <c r="D51" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20" t="s">
+      <c r="E51" s="22"/>
+      <c r="F51" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20" t="s">
+      <c r="G51" s="22"/>
+      <c r="H51" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="17" t="s">
+      <c r="C52" s="17"/>
+      <c r="D52" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18" t="s">
+      <c r="G52" s="18"/>
+      <c r="H52" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="18"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="312">
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="F61:G61"/>
@@ -2311,294 +2596,6 @@
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestUnitaires.xlsx
+++ b/TestUnitaires.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boldu\Documents\S4\APP4\Problématique\PCArchitecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\PCArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BB8E26-2CB7-4AB9-9121-3AD04238FCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAAC337-EA91-48AF-A555-308D2E32F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2066EFEB-9789-482C-AA6E-A8247BD797D8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
   <si>
     <t>TEST UNITAIRE</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>exemple dans MARS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a completer </t>
   </si>
   <si>
     <t>LWV $t0 , $at</t>
@@ -317,18 +314,6 @@
     <t>avoir 3 dans $s0 et 5 dans $s2</t>
   </si>
   <si>
-    <t>VALID</t>
-  </si>
-  <si>
-    <t>addvs</t>
-  </si>
-  <si>
-    <t>un des deux move</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sw </t>
-  </si>
-  <si>
     <t>X"20080003",
 X"20090004",
 X"200a0005",
@@ -388,16 +373,178 @@
     <t>MOVNV  $s0, $t0, $s4</t>
   </si>
   <si>
-    <t>si $t0 - $t3 != 0, $s4-$s7 =  $s0-$s3</t>
-  </si>
-  <si>
-    <t>si $t0 - $t3 = 0, $t4-$t7 =  $s0-$s3</t>
+    <t>si $t4 - $t7 = 0, $t0-$t4 =  $s0-$s3</t>
+  </si>
+  <si>
+    <t>si $s4 - $s7 != 0, $t0-$4 =  $s0-$s3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre total d'instructions : </t>
+  </si>
+  <si>
+    <t>Nombre total d'instruction d'accès en mémoire:</t>
+  </si>
+  <si>
+    <t>Nombre total d'instruction de jump</t>
+  </si>
+  <si>
+    <t>Nombre total d'instruction de branchement :</t>
+  </si>
+  <si>
+    <t>Nombre d'instruction arithmétique</t>
+  </si>
+  <si>
+    <t>%ALU</t>
+  </si>
+  <si>
+    <t>%Jump</t>
+  </si>
+  <si>
+    <t>%branch</t>
+  </si>
+  <si>
+    <t>%Memory</t>
+  </si>
+  <si>
+    <t>%others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre autre opération </t>
+  </si>
+  <si>
+    <t>Penalité accès instruction</t>
+  </si>
+  <si>
+    <t>Penalité accès Memoire</t>
+  </si>
+  <si>
+    <t>CODE AVANT SIMD</t>
+  </si>
+  <si>
+    <t>mémoire DRAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mémoire SRAM </t>
+  </si>
+  <si>
+    <t>Performance unicycle :</t>
+  </si>
+  <si>
+    <t>Mémoire cache</t>
+  </si>
+  <si>
+    <t>Calcul temps d'execution théorique</t>
+  </si>
+  <si>
+    <t>Periode unicycle : 25 ns</t>
+  </si>
+  <si>
+    <t>Periode pipeline 10 ns</t>
+  </si>
+  <si>
+    <t>Formule utilise</t>
+  </si>
+  <si>
+    <t>t_c * nombre total dinstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(nombre d'instruction *10 + nombre d'accès mémoire) </t>
+  </si>
+  <si>
+    <t>expliquation</t>
+  </si>
+  <si>
+    <t>pas de penalité pour accèder a la mémoire (instruction et données confondu)</t>
+  </si>
+  <si>
+    <t>puisque les instruction sont dans la DRAM, chaque lecture d'instruction coute 10 coups d'horloge. Lorsque linstruction est processé ,si lopération est dans la mémoire, il faut rajouter un autre 10 coup d'horloge pour aller chercher ou ecrire les données . Le reste des opérations reste 1 coup d'horloge</t>
+  </si>
+  <si>
+    <t>acces de 2 mots lors dun fetch en memoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Théoriquement on load 2 instruction avec 1 fetch d'instruction </t>
+  </si>
+  <si>
+    <t>MAIN</t>
+  </si>
+  <si>
+    <t>calcul instruction accès mem non SIMD</t>
+  </si>
+  <si>
+    <t>loop_CS</t>
+  </si>
+  <si>
+    <t>nombre sw</t>
+  </si>
+  <si>
+    <t>nombre lw</t>
+  </si>
+  <si>
+    <t>nombre la</t>
+  </si>
+  <si>
+    <t>loop_ASC</t>
+  </si>
+  <si>
+    <t>Calcul survivant</t>
+  </si>
+  <si>
+    <t>LOOP calcul survivant</t>
+  </si>
+  <si>
+    <t>out loop calcul survivant</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>LOOP ASC</t>
+  </si>
+  <si>
+    <t>out loop ASC</t>
+  </si>
+  <si>
+    <t>out loop cs</t>
+  </si>
+  <si>
+    <t>out loop asc</t>
+  </si>
+  <si>
+    <t>total SW</t>
+  </si>
+  <si>
+    <t>total lw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODE DE CACHE : read prend 10 c mais load 2 word, write prend 10c </t>
+  </si>
+  <si>
+    <t>Formule accès mémoire = Nombre LW qui hit dans la case +  (Nombre total acces donne- Nombre LW qui hit dans la case)*10</t>
+  </si>
+  <si>
+    <t>avec MARS: ajoute de 1 dans un registre lorsque 2 lw consécutif qui accèdes a des données consécutive en mémoire resultat = 10 hit dans la cache</t>
+  </si>
+  <si>
+    <t>Formule instruction = (N instruction/2  *10  arrondi a la hausse) + n instruction/2 = n/2 *11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw va toujours prendre 10c </t>
+  </si>
+  <si>
+    <t>pipeline SRAM</t>
+  </si>
+  <si>
+    <t>pas de nop à cause des Alea de donné , alea de contrôle gérer automatiquement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000E+00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,7 +583,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -545,17 +692,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -563,6 +703,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,15 +1038,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45E1DBD-2F4E-4269-8CAD-137E567F286D}">
-  <dimension ref="A2:AG61"/>
+  <dimension ref="A2:AG126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -929,11 +1089,11 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
       <c r="AD5" s="11" t="s">
         <v>66</v>
       </c>
@@ -945,22 +1105,22 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="X6" t="s">
+      <c r="X6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="22" t="s">
         <v>44</v>
       </c>
       <c r="AD6" s="13"/>
@@ -986,19 +1146,19 @@
       <c r="Z7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AA7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="13" t="s">
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="AE7" s="14" t="s">
-        <v>69</v>
-      </c>
       <c r="AF7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,62 +1174,62 @@
       <c r="Z8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AA8" s="22" t="s">
+      <c r="AA8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="13" t="s">
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AE8" s="14" t="s">
+      <c r="AF8" s="14" t="s">
         <v>71</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="M9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20" t="s">
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20" t="s">
+      <c r="R9" s="21"/>
+      <c r="S9" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T9" s="20"/>
+      <c r="T9" s="21"/>
       <c r="W9" s="4" t="s">
         <v>1</v>
       </c>
@@ -1091,17 +1251,17 @@
       <c r="AC9" s="4">
         <v>100</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD9" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AG9" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.25">
@@ -1109,9 +1269,9 @@
         <v>10</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="19"/>
+        <v>86</v>
+      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
@@ -1120,19 +1280,19 @@
         <v>12</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="17" t="s">
         <v>16</v>
       </c>
@@ -1141,10 +1301,10 @@
         <v>18</v>
       </c>
       <c r="R10" s="17"/>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T10" s="18"/>
+      <c r="T10" s="20"/>
       <c r="W10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1157,12 +1317,12 @@
       <c r="Z10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AA10" s="22" t="s">
+      <c r="AA10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="13" t="s">
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="24" t="s">
         <v>58</v>
       </c>
       <c r="AE10" s="14" t="s">
@@ -1174,8 +1334,8 @@
     </row>
     <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -1185,8 +1345,8 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -1214,7 +1374,7 @@
       <c r="AC11" s="4">
         <v>111</v>
       </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AD11" s="24" t="s">
         <v>63</v>
       </c>
       <c r="AE11" s="14" t="s">
@@ -1226,8 +1386,8 @@
     </row>
     <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -1237,17 +1397,14 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
-      <c r="V12" t="s">
-        <v>67</v>
-      </c>
       <c r="W12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1255,10 +1412,10 @@
         <v>110011</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AA12" s="4" t="s">
         <v>53</v>
@@ -1269,20 +1426,20 @@
       <c r="AC12" s="4">
         <v>0</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>98</v>
+      <c r="AD12" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -1292,17 +1449,14 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
       <c r="O13" s="17"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
-      <c r="V13" t="s">
-        <v>67</v>
-      </c>
       <c r="W13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1310,10 +1464,10 @@
         <v>110110</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>53</v>
@@ -1324,20 +1478,20 @@
       <c r="AC13" s="4">
         <v>0</v>
       </c>
-      <c r="AD13" s="13" t="s">
-        <v>95</v>
+      <c r="AD13" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -1347,8 +1501,8 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -1368,8 +1522,8 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -1379,8 +1533,8 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
       <c r="O15" s="17"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -1390,8 +1544,8 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -1401,8 +1555,8 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -1412,8 +1566,8 @@
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -1423,8 +1577,8 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -1434,8 +1588,8 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -1445,8 +1599,8 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -1456,8 +1610,8 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -1467,8 +1621,8 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -1501,9 +1655,7 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="W20" s="16" t="s">
-        <v>82</v>
-      </c>
+      <c r="W20" s="26"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
@@ -1526,54 +1678,48 @@
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
-      <c r="W21" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M22" s="20" t="s">
+      <c r="M22" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20" t="s">
+      <c r="N22" s="21"/>
+      <c r="O22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20" t="s">
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20" t="s">
+      <c r="R22" s="21"/>
+      <c r="S22" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T22" s="20"/>
-      <c r="W22" t="s">
-        <v>84</v>
-      </c>
+      <c r="T22" s="21"/>
     </row>
     <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1582,7 +1728,7 @@
       <c r="B23" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
@@ -1591,10 +1737,10 @@
         <v>22</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="5" t="s">
@@ -1603,7 +1749,7 @@
       <c r="M23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="19"/>
+      <c r="N23" s="16"/>
       <c r="O23" s="17" t="s">
         <v>27</v>
       </c>
@@ -1612,18 +1758,15 @@
         <v>28</v>
       </c>
       <c r="R23" s="17"/>
-      <c r="S23" s="18" t="s">
+      <c r="S23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="18"/>
-      <c r="W23" t="s">
-        <v>85</v>
-      </c>
+      <c r="T23" s="20"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -1633,8 +1776,8 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
       <c r="O24" s="17"/>
       <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
@@ -1644,8 +1787,8 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
@@ -1655,8 +1798,8 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
       <c r="Q25" s="17"/>
@@ -1666,8 +1809,8 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
@@ -1677,8 +1820,8 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
@@ -1688,8 +1831,8 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
@@ -1699,8 +1842,8 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
@@ -1710,8 +1853,8 @@
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
@@ -1721,8 +1864,8 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
@@ -1732,8 +1875,8 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
@@ -1743,8 +1886,8 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
       <c r="O29" s="17"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
@@ -1754,8 +1897,8 @@
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -1765,8 +1908,8 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
       <c r="O30" s="17"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
@@ -1776,8 +1919,8 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -1787,8 +1930,8 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
@@ -1798,8 +1941,8 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
@@ -1809,8 +1952,8 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="17"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
@@ -1866,84 +2009,84 @@
       <c r="A36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
+      <c r="G36" s="21"/>
+      <c r="H36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="21"/>
       <c r="L36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M36" s="20" t="s">
+      <c r="M36" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20" t="s">
+      <c r="N36" s="21"/>
+      <c r="O36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20" t="s">
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20" t="s">
+      <c r="R36" s="21"/>
+      <c r="S36" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="T36" s="20"/>
+      <c r="T36" s="21"/>
     </row>
     <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="18"/>
+      <c r="H37" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="20"/>
       <c r="L37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="M37" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R37" s="17"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -1951,8 +2094,8 @@
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
       <c r="O38" s="17"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
@@ -1962,8 +2105,8 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -1971,8 +2114,8 @@
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
       <c r="L39" s="6"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
       <c r="O39" s="17"/>
       <c r="P39" s="17"/>
       <c r="Q39" s="17"/>
@@ -1982,8 +2125,8 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
@@ -1991,8 +2134,8 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
       <c r="L40" s="6"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
       <c r="O40" s="17"/>
       <c r="P40" s="17"/>
       <c r="Q40" s="17"/>
@@ -2002,8 +2145,8 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
@@ -2011,8 +2154,8 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
       <c r="L41" s="6"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
       <c r="O41" s="17"/>
       <c r="P41" s="17"/>
       <c r="Q41" s="17"/>
@@ -2022,8 +2165,8 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
@@ -2031,8 +2174,8 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="L42" s="6"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
       <c r="O42" s="17"/>
       <c r="P42" s="17"/>
       <c r="Q42" s="17"/>
@@ -2042,8 +2185,8 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
@@ -2051,8 +2194,8 @@
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="L43" s="6"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
       <c r="O43" s="17"/>
       <c r="P43" s="17"/>
       <c r="Q43" s="17"/>
@@ -2062,8 +2205,8 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
@@ -2071,8 +2214,8 @@
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="L44" s="6"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
       <c r="O44" s="17"/>
       <c r="P44" s="17"/>
       <c r="Q44" s="17"/>
@@ -2082,8 +2225,8 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
@@ -2091,8 +2234,8 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="L45" s="6"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
@@ -2102,8 +2245,8 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
@@ -2111,8 +2254,8 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="L46" s="6"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
       <c r="O46" s="17"/>
       <c r="P46" s="17"/>
       <c r="Q46" s="17"/>
@@ -2148,31 +2291,31 @@
       <c r="A51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20" t="s">
+      <c r="E51" s="21"/>
+      <c r="F51" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20" t="s">
+      <c r="G51" s="21"/>
+      <c r="H51" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="20"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="19"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="17" t="s">
         <v>34</v>
       </c>
@@ -2181,15 +2324,15 @@
         <v>35</v>
       </c>
       <c r="G52" s="17"/>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I52" s="18"/>
+      <c r="I52" s="20"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
@@ -2199,8 +2342,8 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
@@ -2210,8 +2353,8 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -2221,8 +2364,8 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
       <c r="F56" s="17"/>
@@ -2232,8 +2375,8 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
       <c r="F57" s="17"/>
@@ -2243,8 +2386,8 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="17"/>
@@ -2254,8 +2397,8 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -2265,8 +2408,8 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -2276,8 +2419,8 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -2285,8 +2428,1573 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63">
+        <f xml:space="preserve"> 25 * 10^-9</f>
+        <v>2.5000000000000002E-8</v>
+      </c>
+      <c r="C63">
+        <f>1/ (0.01 * 10^-9)</f>
+        <v>99999999999.999985</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64">
+        <f xml:space="preserve"> 10 * 10^-9</f>
+        <v>1E-8</v>
+      </c>
+      <c r="C64">
+        <f xml:space="preserve"> 1.1282 * 390 *B64</f>
+        <v>4.3999800000000005E-6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="18">
+        <v>390</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18">
+        <v>390</v>
+      </c>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18">
+        <v>390</v>
+      </c>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18">
+        <v>390</v>
+      </c>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="18">
+        <v>191</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18">
+        <v>191</v>
+      </c>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18">
+        <v>191</v>
+      </c>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18">
+        <v>191</v>
+      </c>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="18">
+        <v>30</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18">
+        <v>30</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18">
+        <v>30</v>
+      </c>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18">
+        <v>30</v>
+      </c>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+    </row>
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="18">
+        <v>41</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18">
+        <v>41</v>
+      </c>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18">
+        <v>41</v>
+      </c>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18">
+        <v>41</v>
+      </c>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+    </row>
+    <row r="72" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="18">
+        <v>86</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18">
+        <v>86</v>
+      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18">
+        <v>86</v>
+      </c>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18">
+        <v>86</v>
+      </c>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="18">
+        <v>42</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18">
+        <v>42</v>
+      </c>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18">
+        <v>42</v>
+      </c>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18">
+        <v>42</v>
+      </c>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="18">
+        <f xml:space="preserve"> B69/$B$68</f>
+        <v>0.48974358974358972</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18">
+        <f xml:space="preserve"> G69/$B$68</f>
+        <v>0.48974358974358972</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18">
+        <f xml:space="preserve"> L69/$B$68</f>
+        <v>0.48974358974358972</v>
+      </c>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18">
+        <f xml:space="preserve"> Q69/$B$68</f>
+        <v>0.48974358974358972</v>
+      </c>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="18">
+        <f t="shared" ref="B75:B78" si="0" xml:space="preserve"> B70/$B$68</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18">
+        <f t="shared" ref="G75:G78" si="1" xml:space="preserve"> G70/$B$68</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18">
+        <f t="shared" ref="L75:L78" si="2" xml:space="preserve"> L70/$B$68</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18">
+        <f t="shared" ref="Q75:Q78" si="3" xml:space="preserve"> Q70/$B$68</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="18">
+        <f t="shared" si="0"/>
+        <v>0.10512820512820513</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18">
+        <f t="shared" si="1"/>
+        <v>0.10512820512820513</v>
+      </c>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18">
+        <f t="shared" si="2"/>
+        <v>0.10512820512820513</v>
+      </c>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18">
+        <f t="shared" si="3"/>
+        <v>0.10512820512820513</v>
+      </c>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="18">
+        <f t="shared" si="0"/>
+        <v>0.22051282051282051</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18">
+        <f t="shared" si="1"/>
+        <v>0.22051282051282051</v>
+      </c>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18">
+        <f t="shared" si="2"/>
+        <v>0.22051282051282051</v>
+      </c>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18">
+        <f t="shared" si="3"/>
+        <v>0.22051282051282051</v>
+      </c>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" s="18">
+        <f t="shared" si="0"/>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18">
+        <f t="shared" si="1"/>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18">
+        <f t="shared" si="3"/>
+        <v>0.1076923076923077</v>
+      </c>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="18">
+        <v>0</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18">
+        <v>10</v>
+      </c>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18">
+        <v>10</v>
+      </c>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="18">
+        <v>0</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18">
+        <v>10</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18">
+        <v>10</v>
+      </c>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" s="27">
+        <f>B68*B63</f>
+        <v>9.7500000000000015E-6</v>
+      </c>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27">
+        <f xml:space="preserve"> ((G68+G72)*10 + G69+G70+G71+G73)*B63</f>
+        <v>1.2660000000000001E-4</v>
+      </c>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="27">
+        <f xml:space="preserve"> (((L68/2)*11) + (((L72-10)*10)+ 10 + L68-L72))*B63</f>
+        <v>8.0475000000000005E-5</v>
+      </c>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B110" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="18">
+        <v>0</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18">
+        <v>0</v>
+      </c>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18">
+        <v>3</v>
+      </c>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>132</v>
+      </c>
+      <c r="B113" s="18">
+        <v>5</v>
+      </c>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18">
+        <v>1</v>
+      </c>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18">
+        <v>0</v>
+      </c>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="18">
+        <v>1</v>
+      </c>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18">
+        <v>4</v>
+      </c>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18">
+        <v>0</v>
+      </c>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="18">
+        <v>0</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18">
+        <v>4</v>
+      </c>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18">
+        <v>0</v>
+      </c>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="18">
+        <v>0</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18">
+        <v>0</v>
+      </c>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18">
+        <v>0</v>
+      </c>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="18">
+        <v>1</v>
+      </c>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18">
+        <v>3</v>
+      </c>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18">
+        <v>3</v>
+      </c>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="18">
+        <v>0</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18">
+        <v>0</v>
+      </c>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18">
+        <v>0</v>
+      </c>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="18">
+        <v>1</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" s="18">
+        <v>1</v>
+      </c>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18">
+        <f>B112*$B$120 + B113*$B$121 + B114*$B$122 + B115*$B$123 + B116*$B$124 + B117*$B$125 + B118*$B$126</f>
+        <v>25</v>
+      </c>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18">
+        <f>G112*$B$120 + G113*$B$121 + G114*$B$122 + G115*$B$123 + G116*$B$124 + G117*$B$125 + G118*$B$126</f>
+        <v>69</v>
+      </c>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" s="18">
+        <v>4</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" s="18">
+        <v>1</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>135</v>
+      </c>
+      <c r="B124" s="18">
+        <v>4</v>
+      </c>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="18">
+        <v>16</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>137</v>
+      </c>
+      <c r="B126" s="18">
+        <v>4</v>
+      </c>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="451">
+    <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="Q78:U78"/>
+    <mergeCell ref="Q79:U79"/>
+    <mergeCell ref="Q80:U80"/>
+    <mergeCell ref="Q81:U81"/>
+    <mergeCell ref="Q82:U82"/>
+    <mergeCell ref="Q83:U83"/>
+    <mergeCell ref="Q84:U84"/>
+    <mergeCell ref="Q85:U85"/>
+    <mergeCell ref="Q86:U86"/>
+    <mergeCell ref="Q87:U87"/>
+    <mergeCell ref="Q88:U88"/>
+    <mergeCell ref="L120:P120"/>
+    <mergeCell ref="L121:P121"/>
+    <mergeCell ref="L122:P122"/>
+    <mergeCell ref="L123:P123"/>
+    <mergeCell ref="L124:P124"/>
+    <mergeCell ref="L125:P125"/>
+    <mergeCell ref="L78:P78"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="L115:P115"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="G123:K123"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="G125:K125"/>
+    <mergeCell ref="L79:P79"/>
+    <mergeCell ref="L80:P80"/>
+    <mergeCell ref="L81:P81"/>
+    <mergeCell ref="L82:P82"/>
+    <mergeCell ref="L83:P83"/>
+    <mergeCell ref="L84:P84"/>
+    <mergeCell ref="L85:P85"/>
+    <mergeCell ref="L86:P86"/>
+    <mergeCell ref="L87:P87"/>
+    <mergeCell ref="L110:P110"/>
+    <mergeCell ref="L111:P111"/>
+    <mergeCell ref="L112:P112"/>
+    <mergeCell ref="L116:P116"/>
+    <mergeCell ref="L113:P113"/>
+    <mergeCell ref="L114:P114"/>
+    <mergeCell ref="L117:P117"/>
+    <mergeCell ref="L118:P118"/>
+    <mergeCell ref="L119:P119"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="G79:K79"/>
+    <mergeCell ref="G80:K80"/>
+    <mergeCell ref="G81:K81"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="G83:K83"/>
+    <mergeCell ref="G84:K84"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="G86:K86"/>
+    <mergeCell ref="G87:K87"/>
+    <mergeCell ref="G110:K110"/>
+    <mergeCell ref="G111:K111"/>
+    <mergeCell ref="G112:K112"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="G113:K113"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="L73:P73"/>
+    <mergeCell ref="L74:P74"/>
+    <mergeCell ref="L75:P75"/>
+    <mergeCell ref="L76:P76"/>
+    <mergeCell ref="L77:P77"/>
+    <mergeCell ref="Q66:U66"/>
+    <mergeCell ref="Q67:U67"/>
+    <mergeCell ref="Q68:U68"/>
+    <mergeCell ref="Q69:U69"/>
+    <mergeCell ref="Q70:U70"/>
+    <mergeCell ref="Q71:U71"/>
+    <mergeCell ref="Q72:U72"/>
+    <mergeCell ref="Q73:U73"/>
+    <mergeCell ref="Q74:U74"/>
+    <mergeCell ref="Q75:U75"/>
+    <mergeCell ref="Q76:U76"/>
+    <mergeCell ref="Q77:U77"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="G76:K76"/>
+    <mergeCell ref="G77:K77"/>
+    <mergeCell ref="G78:K78"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="G68:K68"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="L70:P70"/>
+    <mergeCell ref="L71:P71"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:T44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="F61:G61"/>
@@ -2311,294 +4019,6 @@
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:I55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:T44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
